--- a/Jasper資料.xlsx
+++ b/Jasper資料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="草稿" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442">
   <si>
     <t>机械手1</t>
   </si>
@@ -1183,6 +1183,15 @@
     <t>样本测试：</t>
   </si>
   <si>
+    <t>AskSample</t>
+  </si>
+  <si>
+    <t>SampleTest;OK/NG</t>
+  </si>
+  <si>
+    <t>响应；测样本/不测样本</t>
+  </si>
+  <si>
     <t>StartSample</t>
   </si>
   <si>
@@ -1211,6 +1220,18 @@
   </si>
   <si>
     <t>TestStartSample;2</t>
+  </si>
+  <si>
+    <t>StartClean</t>
+  </si>
+  <si>
+    <t>清洁模式</t>
+  </si>
+  <si>
+    <t>CheckClean</t>
+  </si>
+  <si>
+    <t>EndClean</t>
   </si>
   <si>
     <t>备注：第一轮扫描结束后给出CheckSample，返回EndSample结束；
@@ -1334,10 +1355,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1351,36 +1372,6 @@
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1398,6 +1389,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -1407,15 +1414,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1437,31 +1436,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1474,7 +1467,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1489,15 +1482,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1524,19 +1545,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1548,25 +1581,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1578,37 +1599,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1626,19 +1623,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1650,19 +1635,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1674,19 +1659,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1704,7 +1689,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2048,16 +2075,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2073,30 +2100,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2120,6 +2123,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2128,10 +2155,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2140,137 +2167,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2468,6 +2495,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2543,11 +2573,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2582,7 +2607,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13980795" cy="8488680"/>
+          <a:ext cx="15238095" cy="8190230"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2879,11 +2904,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -2891,10 +2917,10 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="19.3727272727273" customWidth="1"/>
-    <col min="2" max="2" width="13.7545454545455" customWidth="1"/>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="13.7583333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2943,7 +2969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:N101"/>
   <sheetViews>
@@ -2951,15 +2977,15 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.2545454545455" customWidth="1"/>
-    <col min="2" max="2" width="10.3727272727273" customWidth="1"/>
-    <col min="3" max="3" width="15.3727272727273" customWidth="1"/>
-    <col min="4" max="5" width="12.2545454545455" customWidth="1"/>
-    <col min="6" max="6" width="18.2545454545455" customWidth="1"/>
-    <col min="7" max="7" width="10.1272727272727" customWidth="1"/>
-    <col min="9" max="9" width="10.1272727272727" customWidth="1"/>
+    <col min="1" max="1" width="12.2583333333333" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="5" width="12.2583333333333" customWidth="1"/>
+    <col min="6" max="6" width="18.2583333333333" customWidth="1"/>
+    <col min="7" max="7" width="10.125" customWidth="1"/>
+    <col min="9" max="9" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2983,7 +3009,7 @@
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="69" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
@@ -2992,7 +3018,7 @@
       <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="69" t="s">
         <v>16</v>
       </c>
       <c r="G2" t="s">
@@ -3009,7 +3035,7 @@
       <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="69" t="s">
         <v>21</v>
       </c>
       <c r="D3" t="s">
@@ -3018,7 +3044,7 @@
       <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="69" t="s">
         <v>24</v>
       </c>
       <c r="G3" t="s">
@@ -3035,7 +3061,7 @@
       <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="69" t="s">
         <v>29</v>
       </c>
       <c r="D4" t="s">
@@ -3044,7 +3070,7 @@
       <c r="E4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="69" t="s">
         <v>32</v>
       </c>
       <c r="G4" t="s">
@@ -3061,7 +3087,7 @@
       <c r="B5" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="69" t="s">
         <v>37</v>
       </c>
       <c r="D5" t="s">
@@ -3070,7 +3096,7 @@
       <c r="E5" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="69" t="s">
         <v>40</v>
       </c>
       <c r="G5" t="s">
@@ -3087,7 +3113,7 @@
       <c r="B6" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="69" t="s">
         <v>45</v>
       </c>
       <c r="D6" t="s">
@@ -3096,7 +3122,7 @@
       <c r="E6" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="68" t="s">
+      <c r="F6" s="69" t="s">
         <v>48</v>
       </c>
       <c r="G6" t="s">
@@ -3113,7 +3139,7 @@
       <c r="B7" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="69" t="s">
         <v>53</v>
       </c>
       <c r="D7" t="s">
@@ -3122,7 +3148,7 @@
       <c r="E7" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="F7" s="69" t="s">
         <v>56</v>
       </c>
       <c r="G7" t="s">
@@ -3145,7 +3171,7 @@
       <c r="E8" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="68" t="s">
+      <c r="F8" s="69" t="s">
         <v>63</v>
       </c>
       <c r="G8" t="s">
@@ -3154,8 +3180,8 @@
       <c r="I8" t="s">
         <v>65</v>
       </c>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
@@ -3170,7 +3196,7 @@
       <c r="E9" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="68" t="s">
+      <c r="F9" s="69" t="s">
         <v>70</v>
       </c>
       <c r="G9" t="s">
@@ -3179,8 +3205,8 @@
       <c r="I9" t="s">
         <v>72</v>
       </c>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
@@ -3195,7 +3221,7 @@
       <c r="E10" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="68" t="s">
+      <c r="F10" s="69" t="s">
         <v>77</v>
       </c>
       <c r="G10" t="s">
@@ -3204,8 +3230,8 @@
       <c r="I10" t="s">
         <v>79</v>
       </c>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
@@ -3220,7 +3246,7 @@
       <c r="E11" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="69" t="s">
         <v>84</v>
       </c>
       <c r="G11" t="s">
@@ -3229,8 +3255,8 @@
       <c r="I11" t="s">
         <v>86</v>
       </c>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
@@ -3245,7 +3271,7 @@
       <c r="E12" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="68" t="s">
+      <c r="F12" s="69" t="s">
         <v>91</v>
       </c>
       <c r="G12" t="s">
@@ -3254,8 +3280,8 @@
       <c r="I12" t="s">
         <v>93</v>
       </c>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
@@ -3270,7 +3296,7 @@
       <c r="E13" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="68" t="s">
+      <c r="F13" s="69" t="s">
         <v>98</v>
       </c>
       <c r="G13" t="s">
@@ -3279,8 +3305,8 @@
       <c r="I13" t="s">
         <v>100</v>
       </c>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
@@ -3295,7 +3321,7 @@
       <c r="E14" t="s">
         <v>104</v>
       </c>
-      <c r="F14" s="68" t="s">
+      <c r="F14" s="69" t="s">
         <v>105</v>
       </c>
       <c r="G14" t="s">
@@ -3304,8 +3330,8 @@
       <c r="I14" t="s">
         <v>107</v>
       </c>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
@@ -3320,7 +3346,7 @@
       <c r="E15" t="s">
         <v>111</v>
       </c>
-      <c r="F15" s="68" t="s">
+      <c r="F15" s="69" t="s">
         <v>112</v>
       </c>
       <c r="G15" t="s">
@@ -3329,8 +3355,8 @@
       <c r="I15" t="s">
         <v>114</v>
       </c>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
@@ -3345,7 +3371,7 @@
       <c r="E16" t="s">
         <v>118</v>
       </c>
-      <c r="F16" s="69" t="s">
+      <c r="F16" s="70" t="s">
         <v>119</v>
       </c>
       <c r="G16" t="s">
@@ -3354,8 +3380,8 @@
       <c r="I16" t="s">
         <v>121</v>
       </c>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
@@ -3370,7 +3396,7 @@
       <c r="E17" t="s">
         <v>125</v>
       </c>
-      <c r="F17" s="69" t="s">
+      <c r="F17" s="70" t="s">
         <v>126</v>
       </c>
       <c r="G17" t="s">
@@ -3379,8 +3405,8 @@
       <c r="I17" t="s">
         <v>128</v>
       </c>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
@@ -3395,7 +3421,7 @@
       <c r="E18" t="s">
         <v>132</v>
       </c>
-      <c r="F18" s="69" t="s">
+      <c r="F18" s="70" t="s">
         <v>133</v>
       </c>
       <c r="G18" t="s">
@@ -3404,8 +3430,8 @@
       <c r="I18" t="s">
         <v>135</v>
       </c>
-      <c r="M18" s="68"/>
-      <c r="N18" s="68"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
@@ -3420,7 +3446,7 @@
       <c r="E19" t="s">
         <v>139</v>
       </c>
-      <c r="F19" s="69" t="s">
+      <c r="F19" s="70" t="s">
         <v>140</v>
       </c>
       <c r="G19" t="s">
@@ -3429,8 +3455,8 @@
       <c r="I19" t="s">
         <v>142</v>
       </c>
-      <c r="M19" s="68"/>
-      <c r="N19" s="68"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
@@ -3445,7 +3471,7 @@
       <c r="E20" t="s">
         <v>146</v>
       </c>
-      <c r="F20" s="70" t="s">
+      <c r="F20" s="71" t="s">
         <v>147</v>
       </c>
       <c r="G20" t="s">
@@ -3454,8 +3480,8 @@
       <c r="I20" t="s">
         <v>149</v>
       </c>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
@@ -3470,7 +3496,7 @@
       <c r="E21" t="s">
         <v>153</v>
       </c>
-      <c r="F21" s="70" t="s">
+      <c r="F21" s="71" t="s">
         <v>154</v>
       </c>
       <c r="G21" t="s">
@@ -3479,8 +3505,8 @@
       <c r="I21" t="s">
         <v>156</v>
       </c>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
@@ -3501,8 +3527,8 @@
       <c r="I22" t="s">
         <v>162</v>
       </c>
-      <c r="M22" s="69"/>
-      <c r="N22" s="71"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="72"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
@@ -3523,8 +3549,8 @@
       <c r="I23" t="s">
         <v>168</v>
       </c>
-      <c r="M23" s="69"/>
-      <c r="N23" s="71"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="72"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" t="s">
@@ -3545,8 +3571,8 @@
       <c r="I24" t="s">
         <v>174</v>
       </c>
-      <c r="M24" s="69"/>
-      <c r="N24" s="71"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="72"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" t="s">
@@ -3567,10 +3593,10 @@
       <c r="I25" t="s">
         <v>180</v>
       </c>
-      <c r="M25" s="69"/>
-      <c r="N25" s="71"/>
-    </row>
-    <row r="26" ht="15" spans="1:14">
+      <c r="M25" s="70"/>
+      <c r="N25" s="72"/>
+    </row>
+    <row r="26" ht="14.25" spans="1:14">
       <c r="A26" t="s">
         <v>181</v>
       </c>
@@ -3589,10 +3615,10 @@
       <c r="I26" t="s">
         <v>186</v>
       </c>
-      <c r="M26" s="70"/>
-      <c r="N26" s="72"/>
-    </row>
-    <row r="27" ht="15" spans="1:14">
+      <c r="M26" s="71"/>
+      <c r="N26" s="73"/>
+    </row>
+    <row r="27" ht="14.25" spans="1:14">
       <c r="A27" t="s">
         <v>187</v>
       </c>
@@ -3611,8 +3637,8 @@
       <c r="I27" t="s">
         <v>192</v>
       </c>
-      <c r="M27" s="70"/>
-      <c r="N27" s="72"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="73"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
@@ -4286,21 +4312,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="31.5" customWidth="1"/>
-    <col min="2" max="2" width="38.3727272727273" customWidth="1"/>
-    <col min="3" max="3" width="25.6272727272727" customWidth="1"/>
-    <col min="4" max="4" width="35.7545454545455" customWidth="1"/>
-    <col min="5" max="5" width="40.3727272727273" customWidth="1"/>
+    <col min="2" max="2" width="38.375" customWidth="1"/>
+    <col min="3" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="35.7583333333333" customWidth="1"/>
+    <col min="5" max="5" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4402,21 +4428,21 @@
         <v>386</v>
       </c>
     </row>
-    <row r="10" spans="4:5">
-      <c r="D10" t="s">
+    <row r="10" s="66" customFormat="1" spans="1:5">
+      <c r="A10" s="66" t="s">
         <v>387</v>
       </c>
-      <c r="E10" t="s">
+      <c r="B10" s="66" t="s">
+        <v>365</v>
+      </c>
+      <c r="D10" s="66" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
+      <c r="E10" s="66" t="s">
         <v>389</v>
       </c>
-      <c r="B11" t="s">
-        <v>365</v>
-      </c>
+    </row>
+    <row r="11" spans="4:5">
       <c r="D11" t="s">
         <v>390</v>
       </c>
@@ -4424,61 +4450,97 @@
         <v>391</v>
       </c>
     </row>
-    <row r="12" spans="4:5">
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>392</v>
+      </c>
+      <c r="B12" t="s">
+        <v>365</v>
+      </c>
       <c r="D12" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E12" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5">
+      <c r="D13" t="s">
+        <v>395</v>
+      </c>
+      <c r="E13" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>393</v>
-      </c>
-      <c r="B13" t="s">
-        <v>374</v>
-      </c>
-      <c r="D13" t="s">
-        <v>394</v>
-      </c>
-      <c r="E13" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>396</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
+        <v>374</v>
+      </c>
+      <c r="D14" t="s">
+        <v>397</v>
+      </c>
+      <c r="E14" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>399</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="66" t="s">
-        <v>397</v>
-      </c>
-      <c r="B21" s="67"/>
+    <row r="17" s="66" customFormat="1" ht="13" customHeight="1" spans="4:5">
+      <c r="D17" s="66" t="s">
+        <v>400</v>
+      </c>
+      <c r="E17" s="66" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="18" s="66" customFormat="1" spans="1:5">
+      <c r="A18" s="66" t="s">
+        <v>402</v>
+      </c>
+      <c r="B18" s="66" t="s">
+        <v>365</v>
+      </c>
+      <c r="D18" s="66" t="s">
+        <v>403</v>
+      </c>
+      <c r="E18" s="66" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="67"/>
-      <c r="B22" s="67"/>
+      <c r="A22" s="67" t="s">
+        <v>404</v>
+      </c>
+      <c r="B22" s="68"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="67"/>
-      <c r="B23" s="67"/>
+      <c r="A23" s="68"/>
+      <c r="B23" s="68"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="67"/>
-      <c r="B24" s="67"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="68"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="67"/>
-      <c r="B25" s="67"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="68"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="68"/>
+      <c r="B26" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A21:B25"/>
+    <mergeCell ref="A22:B26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4487,7 +4549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:X37"/>
   <sheetViews>
@@ -4495,9 +4557,9 @@
       <selection activeCell="A30" sqref="A30:L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="24" width="4.37272727272727" customWidth="1"/>
+    <col min="1" max="24" width="4.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -5092,7 +5154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="14.75"/>
+    <row r="11" ht="14.25"/>
     <row r="12" spans="1:20">
       <c r="A12" s="6">
         <v>146</v>
@@ -5131,25 +5193,25 @@
         <v>168</v>
       </c>
       <c r="N12" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="O12" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="T12" s="8" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="13" ht="14.75" spans="1:20">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:20">
       <c r="A13" s="11">
         <v>97</v>
       </c>
@@ -5187,22 +5249,22 @@
         <v>119</v>
       </c>
       <c r="N13" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="O13" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="Q13" s="11" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="R13" s="12" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="S13" s="12" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="T13" s="13" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -5243,13 +5305,13 @@
         <v>72</v>
       </c>
       <c r="N14" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="O14" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="15" ht="14.75" spans="1:15">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:15">
       <c r="A15" s="20">
         <v>1</v>
       </c>
@@ -5287,10 +5349,10 @@
         <v>22</v>
       </c>
       <c r="N15" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="O15" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -5331,13 +5393,13 @@
         <v>26</v>
       </c>
       <c r="N16" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="O16" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="17" ht="14.75" spans="1:15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:15">
       <c r="A17" s="11">
         <v>95</v>
       </c>
@@ -5375,10 +5437,10 @@
         <v>73</v>
       </c>
       <c r="N17" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="O17" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -5419,13 +5481,13 @@
         <v>122</v>
       </c>
       <c r="N18" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="O18" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="19" ht="14.75" spans="1:15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:15">
       <c r="A19" s="11">
         <v>191</v>
       </c>
@@ -5463,13 +5525,13 @@
         <v>169</v>
       </c>
       <c r="N19" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="O19" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="20" ht="14.75"/>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25"/>
     <row r="21" spans="1:15">
       <c r="A21" s="23">
         <v>25</v>
@@ -5508,13 +5570,13 @@
         <v>47</v>
       </c>
       <c r="N21" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="O21" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="22" ht="14.75" spans="1:15">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="1:15">
       <c r="A22" s="28">
         <v>74</v>
       </c>
@@ -5552,10 +5614,10 @@
         <v>96</v>
       </c>
       <c r="N22" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="O22" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -5596,13 +5658,13 @@
         <v>143</v>
       </c>
       <c r="N23" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="O23" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="24" ht="14.75" spans="1:15">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:15">
       <c r="A24" s="37">
         <v>170</v>
       </c>
@@ -5640,10 +5702,10 @@
         <v>192</v>
       </c>
       <c r="N24" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="O24" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -5684,13 +5746,13 @@
         <v>145</v>
       </c>
       <c r="N25" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="O25" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="26" ht="14.75" spans="1:15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="1:15">
       <c r="A26" s="28">
         <v>120</v>
       </c>
@@ -5728,10 +5790,10 @@
         <v>98</v>
       </c>
       <c r="N26" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="O26" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -5772,13 +5834,13 @@
         <v>49</v>
       </c>
       <c r="N27" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="O27" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="28" ht="14.75" spans="1:15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="1:15">
       <c r="A28" s="28">
         <v>24</v>
       </c>
@@ -5816,13 +5878,13 @@
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="O28" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="29" ht="14.75"/>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25"/>
     <row r="30" spans="1:12">
       <c r="A30" s="40">
         <v>8</v>
@@ -5861,7 +5923,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" ht="14.75" spans="1:12">
+    <row r="31" ht="14.25" spans="1:12">
       <c r="A31" s="45">
         <v>4</v>
       </c>
@@ -5937,7 +5999,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" ht="14.75" spans="1:12">
+    <row r="33" ht="14.25" spans="1:12">
       <c r="A33" s="54">
         <v>28</v>
       </c>
@@ -6013,7 +6075,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" ht="14.75" spans="1:12">
+    <row r="35" ht="14.25" spans="1:12">
       <c r="A35" s="45">
         <v>52</v>
       </c>
@@ -6089,7 +6151,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" ht="14.75" spans="1:12">
+    <row r="37" ht="14.25" spans="1:12">
       <c r="A37" s="45">
         <v>76</v>
       </c>
@@ -6135,7 +6197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -6143,28 +6205,28 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.7545454545455" customWidth="1"/>
-    <col min="2" max="2" width="5.37272727272727" customWidth="1"/>
+    <col min="1" max="1" width="13.7583333333333" customWidth="1"/>
+    <col min="2" max="2" width="5.375" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="14.8727272727273" customWidth="1"/>
-    <col min="6" max="6" width="6.37272727272727" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="6.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="C1" s="1"/>
       <c r="E1" s="2" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -6175,10 +6237,10 @@
         <v>2007</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="F2" s="1">
         <v>13800</v>
@@ -6190,7 +6252,7 @@
         <v>2000</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -6201,7 +6263,7 @@
         <v>2001</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -6228,7 +6290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
@@ -6236,33 +6298,33 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="5.12727272727273" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="5.12727272727273" customWidth="1"/>
-    <col min="5" max="5" width="10.8727272727273" customWidth="1"/>
-    <col min="7" max="7" width="2.37272727272727" customWidth="1"/>
+    <col min="3" max="3" width="5.125" customWidth="1"/>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="2.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -6273,7 +6335,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -6286,7 +6348,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -6299,7 +6361,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
@@ -6307,7 +6369,7 @@
     </row>
     <row r="5" spans="6:8">
       <c r="F5" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="G5" s="1">
         <v>3</v>
@@ -6318,7 +6380,7 @@
     </row>
     <row r="6" spans="6:8">
       <c r="F6" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="G6" s="1">
         <v>4</v>
@@ -6329,7 +6391,7 @@
     </row>
     <row r="7" spans="6:8">
       <c r="F7" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="G7" s="1">
         <v>5</v>
@@ -6348,7 +6410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -6356,7 +6418,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/Jasper資料.xlsx
+++ b/Jasper資料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7785" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="草稿" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="444">
   <si>
     <t>机械手1</t>
   </si>
@@ -1222,16 +1222,22 @@
     <t>TestStartSample;2</t>
   </si>
   <si>
+    <t>CheckClean</t>
+  </si>
+  <si>
+    <t>清洁模式命令</t>
+  </si>
+  <si>
     <t>StartClean</t>
   </si>
   <si>
-    <t>清洁模式</t>
-  </si>
-  <si>
-    <t>CheckClean</t>
+    <t>清洁模式(需要清洁)</t>
   </si>
   <si>
     <t>EndClean</t>
+  </si>
+  <si>
+    <t>不需要清洁</t>
   </si>
   <si>
     <t>备注：第一轮扫描结束后给出CheckSample，返回EndSample结束；
@@ -1355,10 +1361,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1375,15 +1381,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1391,15 +1389,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1412,9 +1416,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1435,34 +1460,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1482,15 +1484,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1498,21 +1502,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1551,7 +1557,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1563,13 +1587,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1581,7 +1695,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1593,19 +1713,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1617,121 +1725,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2050,76 +2056,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2142,8 +2083,73 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2155,10 +2161,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2167,16 +2173,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2185,115 +2191,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2573,6 +2579,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2904,12 +2915,11 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -2969,7 +2979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N101"/>
   <sheetViews>
@@ -4312,12 +4322,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4494,31 +4504,31 @@
         <v>379</v>
       </c>
     </row>
-    <row r="17" s="66" customFormat="1" ht="13" customHeight="1" spans="4:5">
+    <row r="17" s="66" customFormat="1" ht="13" customHeight="1" spans="1:5">
+      <c r="A17" s="66" t="s">
+        <v>400</v>
+      </c>
+      <c r="B17" s="66" t="s">
+        <v>401</v>
+      </c>
       <c r="D17" s="66" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E17" s="66" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="18" s="66" customFormat="1" spans="1:5">
-      <c r="A18" s="66" t="s">
-        <v>402</v>
-      </c>
-      <c r="B18" s="66" t="s">
-        <v>365</v>
-      </c>
+        <v>403</v>
+      </c>
+    </row>
+    <row r="18" s="66" customFormat="1" spans="4:5">
       <c r="D18" s="66" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E18" s="66" t="s">
-        <v>368</v>
+        <v>405</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="67" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B22" s="68"/>
     </row>
@@ -4549,7 +4559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:X37"/>
   <sheetViews>
@@ -5193,22 +5203,22 @@
         <v>168</v>
       </c>
       <c r="N12" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="O12" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="T12" s="8" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:20">
@@ -5249,22 +5259,22 @@
         <v>119</v>
       </c>
       <c r="N13" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="O13" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q13" s="11" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="R13" s="12" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="S13" s="12" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="T13" s="13" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -5305,10 +5315,10 @@
         <v>72</v>
       </c>
       <c r="N14" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="O14" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:15">
@@ -5349,10 +5359,10 @@
         <v>22</v>
       </c>
       <c r="N15" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="O15" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -5393,10 +5403,10 @@
         <v>26</v>
       </c>
       <c r="N16" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="O16" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:15">
@@ -5437,10 +5447,10 @@
         <v>73</v>
       </c>
       <c r="N17" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="O17" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -5481,10 +5491,10 @@
         <v>122</v>
       </c>
       <c r="N18" t="s">
+        <v>423</v>
+      </c>
+      <c r="O18" t="s">
         <v>421</v>
-      </c>
-      <c r="O18" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:15">
@@ -5525,10 +5535,10 @@
         <v>169</v>
       </c>
       <c r="N19" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="O19" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" ht="14.25"/>
@@ -5570,10 +5580,10 @@
         <v>47</v>
       </c>
       <c r="N21" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="O21" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:15">
@@ -5614,10 +5624,10 @@
         <v>96</v>
       </c>
       <c r="N22" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="O22" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -5658,10 +5668,10 @@
         <v>143</v>
       </c>
       <c r="N23" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="O23" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:15">
@@ -5702,10 +5712,10 @@
         <v>192</v>
       </c>
       <c r="N24" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="O24" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -5746,10 +5756,10 @@
         <v>145</v>
       </c>
       <c r="N25" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="O25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:15">
@@ -5790,10 +5800,10 @@
         <v>98</v>
       </c>
       <c r="N26" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="O26" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -5834,10 +5844,10 @@
         <v>49</v>
       </c>
       <c r="N27" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="O27" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:15">
@@ -5878,10 +5888,10 @@
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="O28" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="29" ht="14.25"/>
@@ -6197,7 +6207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -6216,17 +6226,17 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C1" s="1"/>
       <c r="E1" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -6237,10 +6247,10 @@
         <v>2007</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F2" s="1">
         <v>13800</v>
@@ -6252,7 +6262,7 @@
         <v>2000</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -6263,7 +6273,7 @@
         <v>2001</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -6290,7 +6300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
@@ -6309,22 +6319,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -6335,7 +6345,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -6348,7 +6358,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -6361,7 +6371,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
@@ -6369,7 +6379,7 @@
     </row>
     <row r="5" spans="6:8">
       <c r="F5" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="G5" s="1">
         <v>3</v>
@@ -6380,7 +6390,7 @@
     </row>
     <row r="6" spans="6:8">
       <c r="F6" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="G6" s="1">
         <v>4</v>
@@ -6391,7 +6401,7 @@
     </row>
     <row r="7" spans="6:8">
       <c r="F7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G7" s="1">
         <v>5</v>
@@ -6410,7 +6420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/Jasper資料.xlsx
+++ b/Jasper資料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" activeTab="2"/>
+    <workbookView windowWidth="19815" windowHeight="7860" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="草稿" sheetId="1" r:id="rId1"/>
@@ -1361,9 +1361,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -1381,53 +1381,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1438,8 +1394,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1455,6 +1412,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1484,6 +1456,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1500,9 +1509,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1511,14 +1519,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1557,7 +1557,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1569,31 +1695,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1605,139 +1737,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2058,9 +2058,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2076,15 +2111,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2107,23 +2133,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2142,17 +2153,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2161,10 +2161,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2173,133 +2173,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4324,10 +4324,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4540,17 +4540,9 @@
       <c r="A24" s="68"/>
       <c r="B24" s="68"/>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="68"/>
-      <c r="B25" s="68"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="68"/>
-      <c r="B26" s="68"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A22:B26"/>
+    <mergeCell ref="A22:B24"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Jasper資料.xlsx
+++ b/Jasper資料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" activeTab="2"/>
+    <workbookView windowWidth="19815" windowHeight="7860" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="草稿" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="网络设置" sheetId="5" r:id="rId5"/>
     <sheet name="产品信息" sheetId="6" r:id="rId6"/>
     <sheet name="数据库" sheetId="7" r:id="rId7"/>
+    <sheet name="ABB复测" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="454">
   <si>
     <t>机械手1</t>
   </si>
@@ -1354,6 +1355,36 @@
   </si>
   <si>
     <t>空穴</t>
+  </si>
+  <si>
+    <t>模式</t>
+  </si>
+  <si>
+    <t>异常</t>
+  </si>
+  <si>
+    <t>处理</t>
+  </si>
+  <si>
+    <t>In-Line</t>
+  </si>
+  <si>
+    <t>有记录</t>
+  </si>
+  <si>
+    <t>不上测试机，放下料盘当NG品处理</t>
+  </si>
+  <si>
+    <t>复测</t>
+  </si>
+  <si>
+    <t>无记录</t>
+  </si>
+  <si>
+    <t>不上测试机，放下料盘特定区域</t>
+  </si>
+  <si>
+    <t>重工</t>
   </si>
 </sst>
 </file>
@@ -1361,13 +1392,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1381,6 +1420,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1388,30 +1434,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1424,9 +1454,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1456,15 +1485,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1472,14 +1495,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1487,7 +1518,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1509,6 +1547,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1517,10 +1556,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1557,7 +1596,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1575,144 +1698,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1725,7 +1710,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1741,6 +1732,54 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="32">
     <border>
@@ -2052,6 +2091,30 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2067,11 +2130,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2095,22 +2164,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2129,30 +2192,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2161,10 +2200,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2173,143 +2212,149 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2523,7 +2568,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3019,7 +3064,7 @@
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="71" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
@@ -3028,7 +3073,7 @@
       <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="71" t="s">
         <v>16</v>
       </c>
       <c r="G2" t="s">
@@ -3045,7 +3090,7 @@
       <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="71" t="s">
         <v>21</v>
       </c>
       <c r="D3" t="s">
@@ -3054,7 +3099,7 @@
       <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="F3" s="71" t="s">
         <v>24</v>
       </c>
       <c r="G3" t="s">
@@ -3071,7 +3116,7 @@
       <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="71" t="s">
         <v>29</v>
       </c>
       <c r="D4" t="s">
@@ -3080,7 +3125,7 @@
       <c r="E4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="71" t="s">
         <v>32</v>
       </c>
       <c r="G4" t="s">
@@ -3097,7 +3142,7 @@
       <c r="B5" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="71" t="s">
         <v>37</v>
       </c>
       <c r="D5" t="s">
@@ -3106,7 +3151,7 @@
       <c r="E5" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="71" t="s">
         <v>40</v>
       </c>
       <c r="G5" t="s">
@@ -3123,7 +3168,7 @@
       <c r="B6" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="71" t="s">
         <v>45</v>
       </c>
       <c r="D6" t="s">
@@ -3132,7 +3177,7 @@
       <c r="E6" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="69" t="s">
+      <c r="F6" s="71" t="s">
         <v>48</v>
       </c>
       <c r="G6" t="s">
@@ -3149,7 +3194,7 @@
       <c r="B7" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="71" t="s">
         <v>53</v>
       </c>
       <c r="D7" t="s">
@@ -3158,7 +3203,7 @@
       <c r="E7" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="69" t="s">
+      <c r="F7" s="71" t="s">
         <v>56</v>
       </c>
       <c r="G7" t="s">
@@ -3181,7 +3226,7 @@
       <c r="E8" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="69" t="s">
+      <c r="F8" s="71" t="s">
         <v>63</v>
       </c>
       <c r="G8" t="s">
@@ -3190,8 +3235,8 @@
       <c r="I8" t="s">
         <v>65</v>
       </c>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
@@ -3206,7 +3251,7 @@
       <c r="E9" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="69" t="s">
+      <c r="F9" s="71" t="s">
         <v>70</v>
       </c>
       <c r="G9" t="s">
@@ -3215,8 +3260,8 @@
       <c r="I9" t="s">
         <v>72</v>
       </c>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
@@ -3231,7 +3276,7 @@
       <c r="E10" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="69" t="s">
+      <c r="F10" s="71" t="s">
         <v>77</v>
       </c>
       <c r="G10" t="s">
@@ -3240,8 +3285,8 @@
       <c r="I10" t="s">
         <v>79</v>
       </c>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
@@ -3256,7 +3301,7 @@
       <c r="E11" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="69" t="s">
+      <c r="F11" s="71" t="s">
         <v>84</v>
       </c>
       <c r="G11" t="s">
@@ -3265,8 +3310,8 @@
       <c r="I11" t="s">
         <v>86</v>
       </c>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="71"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
@@ -3281,7 +3326,7 @@
       <c r="E12" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="69" t="s">
+      <c r="F12" s="71" t="s">
         <v>91</v>
       </c>
       <c r="G12" t="s">
@@ -3290,8 +3335,8 @@
       <c r="I12" t="s">
         <v>93</v>
       </c>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
@@ -3306,7 +3351,7 @@
       <c r="E13" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="69" t="s">
+      <c r="F13" s="71" t="s">
         <v>98</v>
       </c>
       <c r="G13" t="s">
@@ -3315,8 +3360,8 @@
       <c r="I13" t="s">
         <v>100</v>
       </c>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
@@ -3331,7 +3376,7 @@
       <c r="E14" t="s">
         <v>104</v>
       </c>
-      <c r="F14" s="69" t="s">
+      <c r="F14" s="71" t="s">
         <v>105</v>
       </c>
       <c r="G14" t="s">
@@ -3340,8 +3385,8 @@
       <c r="I14" t="s">
         <v>107</v>
       </c>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="71"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
@@ -3356,7 +3401,7 @@
       <c r="E15" t="s">
         <v>111</v>
       </c>
-      <c r="F15" s="69" t="s">
+      <c r="F15" s="71" t="s">
         <v>112</v>
       </c>
       <c r="G15" t="s">
@@ -3365,8 +3410,8 @@
       <c r="I15" t="s">
         <v>114</v>
       </c>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
@@ -3381,7 +3426,7 @@
       <c r="E16" t="s">
         <v>118</v>
       </c>
-      <c r="F16" s="70" t="s">
+      <c r="F16" s="72" t="s">
         <v>119</v>
       </c>
       <c r="G16" t="s">
@@ -3390,8 +3435,8 @@
       <c r="I16" t="s">
         <v>121</v>
       </c>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
@@ -3406,7 +3451,7 @@
       <c r="E17" t="s">
         <v>125</v>
       </c>
-      <c r="F17" s="70" t="s">
+      <c r="F17" s="72" t="s">
         <v>126</v>
       </c>
       <c r="G17" t="s">
@@ -3415,8 +3460,8 @@
       <c r="I17" t="s">
         <v>128</v>
       </c>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
@@ -3431,7 +3476,7 @@
       <c r="E18" t="s">
         <v>132</v>
       </c>
-      <c r="F18" s="70" t="s">
+      <c r="F18" s="72" t="s">
         <v>133</v>
       </c>
       <c r="G18" t="s">
@@ -3440,8 +3485,8 @@
       <c r="I18" t="s">
         <v>135</v>
       </c>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
@@ -3456,7 +3501,7 @@
       <c r="E19" t="s">
         <v>139</v>
       </c>
-      <c r="F19" s="70" t="s">
+      <c r="F19" s="72" t="s">
         <v>140</v>
       </c>
       <c r="G19" t="s">
@@ -3465,8 +3510,8 @@
       <c r="I19" t="s">
         <v>142</v>
       </c>
-      <c r="M19" s="69"/>
-      <c r="N19" s="69"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="71"/>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
@@ -3481,7 +3526,7 @@
       <c r="E20" t="s">
         <v>146</v>
       </c>
-      <c r="F20" s="71" t="s">
+      <c r="F20" s="73" t="s">
         <v>147</v>
       </c>
       <c r="G20" t="s">
@@ -3490,8 +3535,8 @@
       <c r="I20" t="s">
         <v>149</v>
       </c>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
@@ -3506,7 +3551,7 @@
       <c r="E21" t="s">
         <v>153</v>
       </c>
-      <c r="F21" s="71" t="s">
+      <c r="F21" s="73" t="s">
         <v>154</v>
       </c>
       <c r="G21" t="s">
@@ -3515,8 +3560,8 @@
       <c r="I21" t="s">
         <v>156</v>
       </c>
-      <c r="M21" s="69"/>
-      <c r="N21" s="69"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
@@ -3537,8 +3582,8 @@
       <c r="I22" t="s">
         <v>162</v>
       </c>
-      <c r="M22" s="70"/>
-      <c r="N22" s="72"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="74"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
@@ -3559,8 +3604,8 @@
       <c r="I23" t="s">
         <v>168</v>
       </c>
-      <c r="M23" s="70"/>
-      <c r="N23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="74"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" t="s">
@@ -3581,8 +3626,8 @@
       <c r="I24" t="s">
         <v>174</v>
       </c>
-      <c r="M24" s="70"/>
-      <c r="N24" s="72"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="74"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" t="s">
@@ -3603,8 +3648,8 @@
       <c r="I25" t="s">
         <v>180</v>
       </c>
-      <c r="M25" s="70"/>
-      <c r="N25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="74"/>
     </row>
     <row r="26" ht="14.25" spans="1:14">
       <c r="A26" t="s">
@@ -3625,8 +3670,8 @@
       <c r="I26" t="s">
         <v>186</v>
       </c>
-      <c r="M26" s="71"/>
-      <c r="N26" s="73"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="75"/>
     </row>
     <row r="27" ht="14.25" spans="1:14">
       <c r="A27" t="s">
@@ -3647,8 +3692,8 @@
       <c r="I27" t="s">
         <v>192</v>
       </c>
-      <c r="M27" s="71"/>
-      <c r="N27" s="73"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="75"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
@@ -4326,7 +4371,7 @@
   <sheetPr/>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -4340,88 +4385,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
@@ -4438,17 +4483,17 @@
         <v>386</v>
       </c>
     </row>
-    <row r="10" s="66" customFormat="1" spans="1:5">
-      <c r="A10" s="66" t="s">
+    <row r="10" s="68" customFormat="1" spans="1:5">
+      <c r="A10" s="68" t="s">
         <v>387</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="68" t="s">
         <v>365</v>
       </c>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="68" t="s">
         <v>388</v>
       </c>
-      <c r="E10" s="66" t="s">
+      <c r="E10" s="68" t="s">
         <v>389</v>
       </c>
     </row>
@@ -4500,45 +4545,45 @@
       <c r="A15" t="s">
         <v>399</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="17" s="66" customFormat="1" ht="13" customHeight="1" spans="1:5">
-      <c r="A17" s="66" t="s">
+    <row r="17" s="68" customFormat="1" ht="13" customHeight="1" spans="1:5">
+      <c r="A17" s="68" t="s">
         <v>400</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="68" t="s">
         <v>401</v>
       </c>
-      <c r="D17" s="66" t="s">
+      <c r="D17" s="68" t="s">
         <v>402</v>
       </c>
-      <c r="E17" s="66" t="s">
+      <c r="E17" s="68" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="18" s="66" customFormat="1" spans="4:5">
-      <c r="D18" s="66" t="s">
+    <row r="18" s="68" customFormat="1" spans="4:5">
+      <c r="D18" s="68" t="s">
         <v>404</v>
       </c>
-      <c r="E18" s="66" t="s">
+      <c r="E18" s="68" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="69" t="s">
         <v>406</v>
       </c>
-      <c r="B22" s="68"/>
+      <c r="B22" s="70"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="68"/>
-      <c r="B23" s="68"/>
+      <c r="A23" s="70"/>
+      <c r="B23" s="70"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="68"/>
-      <c r="B24" s="68"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4565,633 +4610,633 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="4">
+      <c r="A1" s="6">
         <v>192</v>
       </c>
-      <c r="B1" s="5">
+      <c r="B1" s="7">
         <v>191</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="6">
         <v>190</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="7">
         <v>189</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="6">
         <v>188</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="7">
         <v>187</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="6">
         <v>186</v>
       </c>
-      <c r="H1" s="5">
+      <c r="H1" s="7">
         <v>185</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="6">
         <v>184</v>
       </c>
-      <c r="J1" s="5">
+      <c r="J1" s="7">
         <v>183</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="6">
         <v>182</v>
       </c>
-      <c r="L1" s="5">
+      <c r="L1" s="7">
         <v>181</v>
       </c>
-      <c r="M1" s="4">
+      <c r="M1" s="6">
         <v>180</v>
       </c>
-      <c r="N1" s="5">
+      <c r="N1" s="7">
         <v>179</v>
       </c>
-      <c r="O1" s="4">
+      <c r="O1" s="6">
         <v>178</v>
       </c>
-      <c r="P1" s="5">
+      <c r="P1" s="7">
         <v>177</v>
       </c>
-      <c r="Q1" s="4">
+      <c r="Q1" s="6">
         <v>176</v>
       </c>
-      <c r="R1" s="5">
+      <c r="R1" s="7">
         <v>175</v>
       </c>
-      <c r="S1" s="4">
+      <c r="S1" s="6">
         <v>174</v>
       </c>
-      <c r="T1" s="5">
+      <c r="T1" s="7">
         <v>173</v>
       </c>
-      <c r="U1" s="4">
+      <c r="U1" s="6">
         <v>172</v>
       </c>
-      <c r="V1" s="5">
+      <c r="V1" s="7">
         <v>171</v>
       </c>
-      <c r="W1" s="4">
+      <c r="W1" s="6">
         <v>170</v>
       </c>
-      <c r="X1" s="5">
+      <c r="X1" s="7">
         <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="5">
+      <c r="A2" s="7">
         <v>168</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="6">
         <v>167</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="7">
         <v>166</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="6">
         <v>165</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="7">
         <v>164</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="6">
         <v>163</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="7">
         <v>162</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="6">
         <v>161</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="7">
         <v>160</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="6">
         <v>159</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="7">
         <v>158</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="6">
         <v>157</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="7">
         <v>156</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="6">
         <v>155</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="7">
         <v>154</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2" s="6">
         <v>153</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="7">
         <v>152</v>
       </c>
-      <c r="R2" s="4">
+      <c r="R2" s="6">
         <v>151</v>
       </c>
-      <c r="S2" s="5">
+      <c r="S2" s="7">
         <v>150</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="6">
         <v>149</v>
       </c>
-      <c r="U2" s="5">
+      <c r="U2" s="7">
         <v>148</v>
       </c>
-      <c r="V2" s="4">
+      <c r="V2" s="6">
         <v>147</v>
       </c>
-      <c r="W2" s="5">
+      <c r="W2" s="7">
         <v>146</v>
       </c>
-      <c r="X2" s="4">
+      <c r="X2" s="6">
         <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="5">
+      <c r="A3" s="7">
         <v>144</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="6">
         <v>143</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="7">
         <v>142</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="6">
         <v>141</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="7">
         <v>140</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="6">
         <v>139</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="7">
         <v>138</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="6">
         <v>137</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="7">
         <v>136</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="6">
         <v>135</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="7">
         <v>134</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="6">
         <v>133</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="7">
         <v>132</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="6">
         <v>131</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="7">
         <v>130</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="6">
         <v>129</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="7">
         <v>128</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3" s="6">
         <v>127</v>
       </c>
-      <c r="S3" s="5">
+      <c r="S3" s="7">
         <v>126</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="6">
         <v>125</v>
       </c>
-      <c r="U3" s="5">
+      <c r="U3" s="7">
         <v>124</v>
       </c>
-      <c r="V3" s="4">
+      <c r="V3" s="6">
         <v>123</v>
       </c>
-      <c r="W3" s="5">
+      <c r="W3" s="7">
         <v>122</v>
       </c>
-      <c r="X3" s="4">
+      <c r="X3" s="6">
         <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="4">
+      <c r="A4" s="6">
         <v>120</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="7">
         <v>119</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="6">
         <v>118</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="7">
         <v>117</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="6">
         <v>116</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="7">
         <v>115</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="6">
         <v>114</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="7">
         <v>113</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="6">
         <v>112</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="7">
         <v>111</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="6">
         <v>110</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="7">
         <v>109</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="6">
         <v>108</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="7">
         <v>107</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="6">
         <v>106</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="7">
         <v>105</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="6">
         <v>104</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="7">
         <v>103</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S4" s="6">
         <v>102</v>
       </c>
-      <c r="T4" s="5">
+      <c r="T4" s="7">
         <v>101</v>
       </c>
-      <c r="U4" s="4">
+      <c r="U4" s="6">
         <v>100</v>
       </c>
-      <c r="V4" s="5">
+      <c r="V4" s="7">
         <v>99</v>
       </c>
-      <c r="W4" s="4">
+      <c r="W4" s="6">
         <v>98</v>
       </c>
-      <c r="X4" s="5">
+      <c r="X4" s="7">
         <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="4">
+      <c r="A5" s="6">
         <v>96</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="7">
         <v>95</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="6">
         <v>94</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="7">
         <v>93</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="6">
         <v>92</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="7">
         <v>91</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="6">
         <v>90</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="7">
         <v>89</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="6">
         <v>88</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="7">
         <v>87</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="6">
         <v>86</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="7">
         <v>85</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="6">
         <v>84</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="7">
         <v>83</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="6">
         <v>82</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="7">
         <v>81</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="6">
         <v>80</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="7">
         <v>79</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5" s="6">
         <v>78</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="7">
         <v>77</v>
       </c>
-      <c r="U5" s="4">
+      <c r="U5" s="6">
         <v>76</v>
       </c>
-      <c r="V5" s="5">
+      <c r="V5" s="7">
         <v>75</v>
       </c>
-      <c r="W5" s="4">
+      <c r="W5" s="6">
         <v>74</v>
       </c>
-      <c r="X5" s="5">
+      <c r="X5" s="7">
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="5">
+      <c r="A6" s="7">
         <v>72</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="6">
         <v>71</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="7">
         <v>70</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="6">
         <v>69</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="7">
         <v>68</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="6">
         <v>67</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="7">
         <v>66</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="6">
         <v>65</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="7">
         <v>64</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="6">
         <v>63</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="7">
         <v>62</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="6">
         <v>61</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="7">
         <v>60</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="6">
         <v>59</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="7">
         <v>58</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="6">
         <v>57</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="7">
         <v>56</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6" s="6">
         <v>55</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="7">
         <v>54</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="6">
         <v>53</v>
       </c>
-      <c r="U6" s="5">
+      <c r="U6" s="7">
         <v>52</v>
       </c>
-      <c r="V6" s="4">
+      <c r="V6" s="6">
         <v>51</v>
       </c>
-      <c r="W6" s="5">
+      <c r="W6" s="7">
         <v>50</v>
       </c>
-      <c r="X6" s="4">
+      <c r="X6" s="6">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="5">
+      <c r="A7" s="7">
         <v>48</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="6">
         <v>47</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="7">
         <v>46</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="6">
         <v>45</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="7">
         <v>44</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="6">
         <v>43</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="7">
         <v>42</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="6">
         <v>41</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="7">
         <v>40</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="6">
         <v>39</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="7">
         <v>38</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="6">
         <v>37</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="7">
         <v>36</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="6">
         <v>35</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="7">
         <v>34</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="6">
         <v>33</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="7">
         <v>32</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="6">
         <v>31</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="7">
         <v>30</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="6">
         <v>29</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U7" s="7">
         <v>28</v>
       </c>
-      <c r="V7" s="4">
+      <c r="V7" s="6">
         <v>27</v>
       </c>
-      <c r="W7" s="5">
+      <c r="W7" s="7">
         <v>26</v>
       </c>
-      <c r="X7" s="4">
+      <c r="X7" s="6">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="4">
+      <c r="A8" s="6">
         <v>24</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="7">
         <v>23</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="6">
         <v>22</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="7">
         <v>21</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="6">
         <v>20</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="7">
         <v>19</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="6">
         <v>18</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="7">
         <v>17</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="6">
         <v>16</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="7">
         <v>15</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="6">
         <v>14</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="7">
         <v>13</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="6">
         <v>12</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="7">
         <v>11</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="6">
         <v>10</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="7">
         <v>9</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="6">
         <v>8</v>
       </c>
-      <c r="R8" s="5">
+      <c r="R8" s="7">
         <v>7</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8" s="6">
         <v>6</v>
       </c>
-      <c r="T8" s="5">
+      <c r="T8" s="7">
         <v>5</v>
       </c>
-      <c r="U8" s="4">
+      <c r="U8" s="6">
         <v>4</v>
       </c>
-      <c r="V8" s="5">
+      <c r="V8" s="7">
         <v>3</v>
       </c>
-      <c r="W8" s="4">
+      <c r="W8" s="6">
         <v>2</v>
       </c>
-      <c r="X8" s="5">
+      <c r="X8" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="11" ht="14.25"/>
     <row r="12" spans="1:20">
-      <c r="A12" s="6">
+      <c r="A12" s="8">
         <v>146</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="9">
         <v>148</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="9">
         <v>150</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="10">
         <v>152</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="11">
         <v>154</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="9">
         <v>156</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="9">
         <v>158</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="12">
         <v>160</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="8">
         <v>162</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="9">
         <v>164</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="9">
         <v>166</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="10">
         <v>168</v>
       </c>
       <c r="N12" t="s">
@@ -5200,54 +5245,54 @@
       <c r="O12" t="s">
         <v>408</v>
       </c>
-      <c r="Q12" s="6" t="s">
+      <c r="Q12" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="R12" s="7" t="s">
+      <c r="R12" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="S12" s="7" t="s">
+      <c r="S12" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="T12" s="8" t="s">
+      <c r="T12" s="10" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:20">
-      <c r="A13" s="11">
+      <c r="A13" s="13">
         <v>97</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="14">
         <v>99</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="14">
         <v>101</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="15">
         <v>103</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="16">
         <v>105</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="17">
         <v>107</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="17">
         <v>109</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="18">
         <v>111</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="13">
         <v>113</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="14">
         <v>115</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="14">
         <v>117</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="15">
         <v>119</v>
       </c>
       <c r="N13" t="s">
@@ -5256,54 +5301,54 @@
       <c r="O13" t="s">
         <v>408</v>
       </c>
-      <c r="Q13" s="11" t="s">
+      <c r="Q13" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="R13" s="12" t="s">
+      <c r="R13" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="S13" s="12" t="s">
+      <c r="S13" s="14" t="s">
         <v>416</v>
       </c>
-      <c r="T13" s="13" t="s">
+      <c r="T13" s="15" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="17">
+      <c r="A14" s="19">
         <v>50</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="20">
         <v>52</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="20">
         <v>54</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="21">
         <v>56</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="8">
         <v>58</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="9">
         <v>60</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="9">
         <v>62</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="10">
         <v>64</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="23">
         <v>66</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="20">
         <v>68</v>
       </c>
-      <c r="K14" s="18">
+      <c r="K14" s="20">
         <v>70</v>
       </c>
-      <c r="L14" s="57">
+      <c r="L14" s="59">
         <v>72</v>
       </c>
       <c r="N14" t="s">
@@ -5314,40 +5359,40 @@
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:15">
-      <c r="A15" s="20">
+      <c r="A15" s="22">
         <v>1</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="17">
         <v>3</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="17">
         <v>5</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="18">
         <v>7</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="13">
         <v>9</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="14">
         <v>11</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="14">
         <v>13</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="15">
         <v>15</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="16">
         <v>17</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="17">
         <v>19</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="17">
         <v>21</v>
       </c>
-      <c r="L15" s="58">
+      <c r="L15" s="60">
         <v>22</v>
       </c>
       <c r="N15" t="s">
@@ -5358,40 +5403,40 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="6">
+      <c r="A16" s="8">
         <v>48</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="9">
         <v>46</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="9">
         <v>44</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="10">
         <v>42</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="23">
         <v>40</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="20">
         <v>38</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="20">
         <v>36</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="21">
         <v>34</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="8">
         <v>32</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="9">
         <v>30</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="9">
         <v>28</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="10">
         <v>26</v>
       </c>
       <c r="N16" t="s">
@@ -5402,40 +5447,40 @@
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:15">
-      <c r="A17" s="11">
+      <c r="A17" s="13">
         <v>95</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="14">
         <v>93</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="14">
         <v>91</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="15">
         <v>89</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="16">
         <v>87</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="17">
         <v>85</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="17">
         <v>83</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17" s="18">
         <v>81</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="13">
         <v>79</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="14">
         <v>77</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="14">
         <v>75</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="15">
         <v>73</v>
       </c>
       <c r="N17" t="s">
@@ -5446,40 +5491,40 @@
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="17">
+      <c r="A18" s="19">
         <v>144</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="20">
         <v>142</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="20">
         <v>140</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="21">
         <v>138</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="8">
         <v>136</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="9">
         <v>134</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="9">
         <v>132</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="10">
         <v>130</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="23">
         <v>128</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="20">
         <v>126</v>
       </c>
-      <c r="K18" s="18">
+      <c r="K18" s="20">
         <v>124</v>
       </c>
-      <c r="L18" s="57">
+      <c r="L18" s="59">
         <v>122</v>
       </c>
       <c r="N18" t="s">
@@ -5490,40 +5535,40 @@
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:15">
-      <c r="A19" s="11">
+      <c r="A19" s="13">
         <v>191</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="14">
         <v>189</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="14">
         <v>187</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="24">
         <v>185</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="13">
         <v>183</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="14">
         <v>181</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="14">
         <v>179</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="15">
         <v>177</v>
       </c>
-      <c r="I19" s="59">
+      <c r="I19" s="61">
         <v>175</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="14">
         <v>173</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19" s="14">
         <v>171</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="15">
         <v>169</v>
       </c>
       <c r="N19" t="s">
@@ -5535,40 +5580,40 @@
     </row>
     <row r="20" ht="14.25"/>
     <row r="21" spans="1:15">
-      <c r="A21" s="23">
+      <c r="A21" s="25">
         <v>25</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="26">
         <v>27</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="26">
         <v>29</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="27">
         <v>31</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="28">
         <v>33</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="26">
         <v>35</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="26">
         <v>37</v>
       </c>
-      <c r="H21" s="27">
+      <c r="H21" s="29">
         <v>39</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="25">
         <v>41</v>
       </c>
-      <c r="J21" s="24">
+      <c r="J21" s="26">
         <v>43</v>
       </c>
-      <c r="K21" s="24">
+      <c r="K21" s="26">
         <v>45</v>
       </c>
-      <c r="L21" s="25">
+      <c r="L21" s="27">
         <v>47</v>
       </c>
       <c r="N21" t="s">
@@ -5579,40 +5624,40 @@
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:15">
-      <c r="A22" s="28">
+      <c r="A22" s="30">
         <v>74</v>
       </c>
-      <c r="B22" s="29">
+      <c r="B22" s="31">
         <v>76</v>
       </c>
-      <c r="C22" s="29">
+      <c r="C22" s="31">
         <v>78</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="32">
         <v>80</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E22" s="33">
         <v>82</v>
       </c>
-      <c r="F22" s="32">
+      <c r="F22" s="34">
         <v>84</v>
       </c>
-      <c r="G22" s="32">
+      <c r="G22" s="34">
         <v>86</v>
       </c>
-      <c r="H22" s="33">
+      <c r="H22" s="35">
         <v>88</v>
       </c>
-      <c r="I22" s="28">
+      <c r="I22" s="30">
         <v>90</v>
       </c>
-      <c r="J22" s="29">
+      <c r="J22" s="31">
         <v>92</v>
       </c>
-      <c r="K22" s="29">
+      <c r="K22" s="31">
         <v>94</v>
       </c>
-      <c r="L22" s="30">
+      <c r="L22" s="32">
         <v>96</v>
       </c>
       <c r="N22" t="s">
@@ -5623,40 +5668,40 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="34">
+      <c r="A23" s="36">
         <v>121</v>
       </c>
-      <c r="B23" s="35">
+      <c r="B23" s="37">
         <v>123</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="37">
         <v>125</v>
       </c>
-      <c r="D23" s="36">
+      <c r="D23" s="38">
         <v>127</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="25">
         <v>129</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="26">
         <v>131</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="26">
         <v>133</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23" s="27">
         <v>135</v>
       </c>
-      <c r="I23" s="38">
+      <c r="I23" s="40">
         <v>137</v>
       </c>
-      <c r="J23" s="35">
+      <c r="J23" s="37">
         <v>139</v>
       </c>
-      <c r="K23" s="35">
+      <c r="K23" s="37">
         <v>141</v>
       </c>
-      <c r="L23" s="60">
+      <c r="L23" s="62">
         <v>143</v>
       </c>
       <c r="N23" t="s">
@@ -5667,40 +5712,40 @@
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:15">
-      <c r="A24" s="37">
+      <c r="A24" s="39">
         <v>170</v>
       </c>
-      <c r="B24" s="32">
+      <c r="B24" s="34">
         <v>172</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C24" s="34">
         <v>174</v>
       </c>
-      <c r="D24" s="33">
+      <c r="D24" s="35">
         <v>176</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E24" s="30">
         <v>178</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="31">
         <v>180</v>
       </c>
-      <c r="G24" s="29">
+      <c r="G24" s="31">
         <v>182</v>
       </c>
-      <c r="H24" s="30">
+      <c r="H24" s="32">
         <v>184</v>
       </c>
-      <c r="I24" s="31">
+      <c r="I24" s="33">
         <v>186</v>
       </c>
-      <c r="J24" s="32">
+      <c r="J24" s="34">
         <v>188</v>
       </c>
-      <c r="K24" s="32">
+      <c r="K24" s="34">
         <v>190</v>
       </c>
-      <c r="L24" s="61">
+      <c r="L24" s="63">
         <v>192</v>
       </c>
       <c r="N24" t="s">
@@ -5711,40 +5756,40 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="23">
+      <c r="A25" s="25">
         <v>167</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B25" s="26">
         <v>165</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="26">
         <v>163</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="27">
         <v>161</v>
       </c>
-      <c r="E25" s="38">
+      <c r="E25" s="40">
         <v>159</v>
       </c>
-      <c r="F25" s="35">
+      <c r="F25" s="37">
         <v>157</v>
       </c>
-      <c r="G25" s="35">
+      <c r="G25" s="37">
         <v>155</v>
       </c>
-      <c r="H25" s="36">
+      <c r="H25" s="38">
         <v>153</v>
       </c>
-      <c r="I25" s="23">
+      <c r="I25" s="25">
         <v>151</v>
       </c>
-      <c r="J25" s="24">
+      <c r="J25" s="26">
         <v>149</v>
       </c>
-      <c r="K25" s="24">
+      <c r="K25" s="26">
         <v>147</v>
       </c>
-      <c r="L25" s="25">
+      <c r="L25" s="27">
         <v>145</v>
       </c>
       <c r="N25" t="s">
@@ -5755,40 +5800,40 @@
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:15">
-      <c r="A26" s="28">
+      <c r="A26" s="30">
         <v>120</v>
       </c>
-      <c r="B26" s="29">
+      <c r="B26" s="31">
         <v>118</v>
       </c>
-      <c r="C26" s="29">
+      <c r="C26" s="31">
         <v>116</v>
       </c>
-      <c r="D26" s="30">
+      <c r="D26" s="32">
         <v>114</v>
       </c>
-      <c r="E26" s="31">
+      <c r="E26" s="33">
         <v>112</v>
       </c>
-      <c r="F26" s="32">
+      <c r="F26" s="34">
         <v>110</v>
       </c>
-      <c r="G26" s="32">
+      <c r="G26" s="34">
         <v>108</v>
       </c>
-      <c r="H26" s="33">
+      <c r="H26" s="35">
         <v>106</v>
       </c>
-      <c r="I26" s="28">
+      <c r="I26" s="30">
         <v>104</v>
       </c>
-      <c r="J26" s="29">
+      <c r="J26" s="31">
         <v>102</v>
       </c>
-      <c r="K26" s="29">
+      <c r="K26" s="31">
         <v>100</v>
       </c>
-      <c r="L26" s="30">
+      <c r="L26" s="32">
         <v>98</v>
       </c>
       <c r="N26" t="s">
@@ -5799,40 +5844,40 @@
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="34">
+      <c r="A27" s="36">
         <v>71</v>
       </c>
-      <c r="B27" s="35">
+      <c r="B27" s="37">
         <v>69</v>
       </c>
-      <c r="C27" s="35">
+      <c r="C27" s="37">
         <v>67</v>
       </c>
-      <c r="D27" s="36">
+      <c r="D27" s="38">
         <v>65</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="25">
         <v>63</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="26">
         <v>61</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G27" s="26">
         <v>59</v>
       </c>
-      <c r="H27" s="25">
+      <c r="H27" s="27">
         <v>57</v>
       </c>
-      <c r="I27" s="38">
+      <c r="I27" s="40">
         <v>55</v>
       </c>
-      <c r="J27" s="35">
+      <c r="J27" s="37">
         <v>53</v>
       </c>
-      <c r="K27" s="35">
+      <c r="K27" s="37">
         <v>51</v>
       </c>
-      <c r="L27" s="60">
+      <c r="L27" s="62">
         <v>49</v>
       </c>
       <c r="N27" t="s">
@@ -5843,40 +5888,40 @@
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:15">
-      <c r="A28" s="28">
+      <c r="A28" s="30">
         <v>24</v>
       </c>
-      <c r="B28" s="29">
+      <c r="B28" s="31">
         <v>22</v>
       </c>
-      <c r="C28" s="29">
+      <c r="C28" s="31">
         <v>20</v>
       </c>
-      <c r="D28" s="39">
+      <c r="D28" s="41">
         <v>18</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E28" s="30">
         <v>16</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="31">
         <v>14</v>
       </c>
-      <c r="G28" s="29">
+      <c r="G28" s="31">
         <v>12</v>
       </c>
-      <c r="H28" s="30">
+      <c r="H28" s="32">
         <v>10</v>
       </c>
-      <c r="I28" s="62">
+      <c r="I28" s="64">
         <v>8</v>
       </c>
-      <c r="J28" s="29">
+      <c r="J28" s="31">
         <v>6</v>
       </c>
-      <c r="K28" s="29">
+      <c r="K28" s="31">
         <v>4</v>
       </c>
-      <c r="L28" s="30">
+      <c r="L28" s="32">
         <v>2</v>
       </c>
       <c r="N28" t="s">
@@ -5888,306 +5933,306 @@
     </row>
     <row r="29" ht="14.25"/>
     <row r="30" spans="1:12">
-      <c r="A30" s="40">
+      <c r="A30" s="42">
         <v>8</v>
       </c>
-      <c r="B30" s="41">
+      <c r="B30" s="43">
         <v>7</v>
       </c>
-      <c r="C30" s="41">
+      <c r="C30" s="43">
         <v>6</v>
       </c>
-      <c r="D30" s="42">
+      <c r="D30" s="44">
         <v>5</v>
       </c>
-      <c r="E30" s="43">
+      <c r="E30" s="45">
         <v>16</v>
       </c>
-      <c r="F30" s="41">
+      <c r="F30" s="43">
         <v>15</v>
       </c>
-      <c r="G30" s="41">
+      <c r="G30" s="43">
         <v>14</v>
       </c>
-      <c r="H30" s="44">
+      <c r="H30" s="46">
         <v>13</v>
       </c>
-      <c r="I30" s="40">
+      <c r="I30" s="42">
         <v>24</v>
       </c>
-      <c r="J30" s="41">
+      <c r="J30" s="43">
         <v>23</v>
       </c>
-      <c r="K30" s="41">
+      <c r="K30" s="43">
         <v>22</v>
       </c>
-      <c r="L30" s="42">
+      <c r="L30" s="44">
         <v>21</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:12">
-      <c r="A31" s="45">
+      <c r="A31" s="47">
         <v>4</v>
       </c>
-      <c r="B31" s="46">
+      <c r="B31" s="48">
         <v>3</v>
       </c>
-      <c r="C31" s="46">
+      <c r="C31" s="48">
         <v>2</v>
       </c>
-      <c r="D31" s="47">
+      <c r="D31" s="49">
         <v>1</v>
       </c>
-      <c r="E31" s="48">
+      <c r="E31" s="50">
         <v>12</v>
       </c>
-      <c r="F31" s="49">
+      <c r="F31" s="51">
         <v>11</v>
       </c>
-      <c r="G31" s="49">
+      <c r="G31" s="51">
         <v>10</v>
       </c>
-      <c r="H31" s="50">
+      <c r="H31" s="52">
         <v>9</v>
       </c>
-      <c r="I31" s="45">
+      <c r="I31" s="47">
         <v>20</v>
       </c>
-      <c r="J31" s="46">
+      <c r="J31" s="48">
         <v>19</v>
       </c>
-      <c r="K31" s="46">
+      <c r="K31" s="48">
         <v>18</v>
       </c>
-      <c r="L31" s="47">
+      <c r="L31" s="49">
         <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="51">
+      <c r="A32" s="53">
         <v>32</v>
       </c>
-      <c r="B32" s="52">
+      <c r="B32" s="54">
         <v>31</v>
       </c>
-      <c r="C32" s="52">
+      <c r="C32" s="54">
         <v>30</v>
       </c>
-      <c r="D32" s="53">
+      <c r="D32" s="55">
         <v>29</v>
       </c>
-      <c r="E32" s="40">
+      <c r="E32" s="42">
         <v>40</v>
       </c>
-      <c r="F32" s="41">
+      <c r="F32" s="43">
         <v>39</v>
       </c>
-      <c r="G32" s="41">
+      <c r="G32" s="43">
         <v>38</v>
       </c>
-      <c r="H32" s="42">
+      <c r="H32" s="44">
         <v>37</v>
       </c>
-      <c r="I32" s="55">
+      <c r="I32" s="57">
         <v>48</v>
       </c>
-      <c r="J32" s="52">
+      <c r="J32" s="54">
         <v>47</v>
       </c>
-      <c r="K32" s="52">
+      <c r="K32" s="54">
         <v>46</v>
       </c>
-      <c r="L32" s="63">
+      <c r="L32" s="65">
         <v>45</v>
       </c>
     </row>
     <row r="33" ht="14.25" spans="1:12">
-      <c r="A33" s="54">
+      <c r="A33" s="56">
         <v>28</v>
       </c>
-      <c r="B33" s="49">
+      <c r="B33" s="51">
         <v>27</v>
       </c>
-      <c r="C33" s="49">
+      <c r="C33" s="51">
         <v>26</v>
       </c>
-      <c r="D33" s="50">
+      <c r="D33" s="52">
         <v>25</v>
       </c>
-      <c r="E33" s="45">
+      <c r="E33" s="47">
         <v>36</v>
       </c>
-      <c r="F33" s="46">
+      <c r="F33" s="48">
         <v>35</v>
       </c>
-      <c r="G33" s="46">
+      <c r="G33" s="48">
         <v>34</v>
       </c>
-      <c r="H33" s="47">
+      <c r="H33" s="49">
         <v>33</v>
       </c>
-      <c r="I33" s="48">
+      <c r="I33" s="50">
         <v>44</v>
       </c>
-      <c r="J33" s="49">
+      <c r="J33" s="51">
         <v>43</v>
       </c>
-      <c r="K33" s="49">
+      <c r="K33" s="51">
         <v>42</v>
       </c>
-      <c r="L33" s="64">
+      <c r="L33" s="66">
         <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="40">
+      <c r="A34" s="42">
         <v>56</v>
       </c>
-      <c r="B34" s="41">
+      <c r="B34" s="43">
         <v>55</v>
       </c>
-      <c r="C34" s="41">
+      <c r="C34" s="43">
         <v>54</v>
       </c>
-      <c r="D34" s="42">
+      <c r="D34" s="44">
         <v>53</v>
       </c>
-      <c r="E34" s="55">
+      <c r="E34" s="57">
         <v>64</v>
       </c>
-      <c r="F34" s="52">
+      <c r="F34" s="54">
         <v>63</v>
       </c>
-      <c r="G34" s="52">
+      <c r="G34" s="54">
         <v>62</v>
       </c>
-      <c r="H34" s="53">
+      <c r="H34" s="55">
         <v>61</v>
       </c>
-      <c r="I34" s="40">
+      <c r="I34" s="42">
         <v>72</v>
       </c>
-      <c r="J34" s="41">
+      <c r="J34" s="43">
         <v>71</v>
       </c>
-      <c r="K34" s="41">
+      <c r="K34" s="43">
         <v>70</v>
       </c>
-      <c r="L34" s="42">
+      <c r="L34" s="44">
         <v>69</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:12">
-      <c r="A35" s="45">
+      <c r="A35" s="47">
         <v>52</v>
       </c>
-      <c r="B35" s="46">
+      <c r="B35" s="48">
         <v>51</v>
       </c>
-      <c r="C35" s="46">
+      <c r="C35" s="48">
         <v>50</v>
       </c>
-      <c r="D35" s="47">
+      <c r="D35" s="49">
         <v>49</v>
       </c>
-      <c r="E35" s="48">
+      <c r="E35" s="50">
         <v>60</v>
       </c>
-      <c r="F35" s="49">
+      <c r="F35" s="51">
         <v>59</v>
       </c>
-      <c r="G35" s="49">
+      <c r="G35" s="51">
         <v>58</v>
       </c>
-      <c r="H35" s="50">
+      <c r="H35" s="52">
         <v>57</v>
       </c>
-      <c r="I35" s="45">
+      <c r="I35" s="47">
         <v>68</v>
       </c>
-      <c r="J35" s="46">
+      <c r="J35" s="48">
         <v>67</v>
       </c>
-      <c r="K35" s="46">
+      <c r="K35" s="48">
         <v>66</v>
       </c>
-      <c r="L35" s="47">
+      <c r="L35" s="49">
         <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="51">
+      <c r="A36" s="53">
         <v>80</v>
       </c>
-      <c r="B36" s="52">
+      <c r="B36" s="54">
         <v>79</v>
       </c>
-      <c r="C36" s="52">
+      <c r="C36" s="54">
         <v>78</v>
       </c>
-      <c r="D36" s="53">
+      <c r="D36" s="55">
         <v>77</v>
       </c>
-      <c r="E36" s="40">
+      <c r="E36" s="42">
         <v>88</v>
       </c>
-      <c r="F36" s="41">
+      <c r="F36" s="43">
         <v>87</v>
       </c>
-      <c r="G36" s="41">
+      <c r="G36" s="43">
         <v>86</v>
       </c>
-      <c r="H36" s="42">
+      <c r="H36" s="44">
         <v>85</v>
       </c>
-      <c r="I36" s="55">
+      <c r="I36" s="57">
         <v>96</v>
       </c>
-      <c r="J36" s="52">
+      <c r="J36" s="54">
         <v>95</v>
       </c>
-      <c r="K36" s="52">
+      <c r="K36" s="54">
         <v>94</v>
       </c>
-      <c r="L36" s="63">
+      <c r="L36" s="65">
         <v>93</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:12">
-      <c r="A37" s="45">
+      <c r="A37" s="47">
         <v>76</v>
       </c>
-      <c r="B37" s="46">
+      <c r="B37" s="48">
         <v>75</v>
       </c>
-      <c r="C37" s="46">
+      <c r="C37" s="48">
         <v>74</v>
       </c>
-      <c r="D37" s="56">
+      <c r="D37" s="58">
         <v>73</v>
       </c>
-      <c r="E37" s="45">
+      <c r="E37" s="47">
         <v>84</v>
       </c>
-      <c r="F37" s="46">
+      <c r="F37" s="48">
         <v>83</v>
       </c>
-      <c r="G37" s="46">
+      <c r="G37" s="48">
         <v>82</v>
       </c>
-      <c r="H37" s="47">
+      <c r="H37" s="49">
         <v>81</v>
       </c>
-      <c r="I37" s="65">
+      <c r="I37" s="67">
         <v>92</v>
       </c>
-      <c r="J37" s="46">
+      <c r="J37" s="48">
         <v>91</v>
       </c>
-      <c r="K37" s="46">
+      <c r="K37" s="48">
         <v>90</v>
       </c>
-      <c r="L37" s="47">
+      <c r="L37" s="49">
         <v>89</v>
       </c>
     </row>
@@ -6217,73 +6262,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="E1" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>2007</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="3">
         <v>13800</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4">
         <v>2000</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4">
         <v>2001</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="3"/>
+      <c r="B5" s="5"/>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="3"/>
+      <c r="B6" s="5"/>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="3"/>
+      <c r="B7" s="5"/>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="3"/>
+      <c r="B8" s="5"/>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="3"/>
+      <c r="B9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -6310,62 +6355,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="3">
         <v>2</v>
       </c>
     </row>
@@ -6373,7 +6418,7 @@
       <c r="F5" t="s">
         <v>441</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="3">
         <v>3</v>
       </c>
       <c r="H5">
@@ -6384,7 +6429,7 @@
       <c r="F6" t="s">
         <v>442</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="3">
         <v>4</v>
       </c>
       <c r="H6">
@@ -6395,7 +6440,7 @@
       <c r="F7" t="s">
         <v>443</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="3">
         <v>5</v>
       </c>
       <c r="H7">
@@ -6426,4 +6471,70 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="8.375" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="31.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>